--- a/JOI Summary.xlsx
+++ b/JOI Summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>JOI Summary 2021</t>
   </si>
@@ -50,15 +50,33 @@
     <t>Scope of Work</t>
   </si>
   <si>
+    <t>Materials Offer</t>
+  </si>
+  <si>
+    <t>Materials QTY</t>
+  </si>
+  <si>
+    <t>Materials UOM</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Status Remarks</t>
+  </si>
+  <si>
     <t>Supplier</t>
   </si>
   <si>
     <t>Payment Terms</t>
   </si>
   <si>
+    <t>Materials Unit Price</t>
+  </si>
+  <si>
+    <t>Materials Total Price</t>
+  </si>
+  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -71,93 +89,42 @@
     <t>JOR 2021-1-CNPR</t>
   </si>
   <si>
-    <t>sample purpose</t>
-  </si>
-  <si>
-    <t>2021-05-05</t>
+    <t>SAMPLE PURPOSE BY HR ADMIN</t>
+  </si>
+  <si>
+    <t>2021-08-24</t>
   </si>
   <si>
     <t>PJOR 2021-1-1000-CNPR</t>
   </si>
   <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t>item testing 1</t>
-  </si>
-  <si>
-    <t>JO Issued</t>
-  </si>
-  <si>
-    <t>2GO Express, Inc.</t>
-  </si>
-  <si>
-    <t>Freight Collect / Prepaid</t>
-  </si>
-  <si>
-    <t>PHP 150.00</t>
-  </si>
-  <si>
-    <t>P-1002-CNPR</t>
+    <t>SAMPLE REQUEST BY HR ADMIN</t>
+  </si>
+  <si>
+    <t>lot/s</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>trials</t>
+  </si>
+  <si>
+    <t>Fully Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.24.2021 - Delivered DR# 1000-CNPR (1.00 lot/s)
+08.24.2021 - Delivered DR# 1001-CNPR (0.00 lot/s)
+</t>
   </si>
   <si>
     <t xml:space="preserve"> Tough Performance AutoWorkz</t>
   </si>
   <si>
-    <t xml:space="preserve"> 150.00</t>
-  </si>
-  <si>
-    <t>P-1003-CNPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1500.00</t>
-  </si>
-  <si>
-    <t>P-1004-CNPR</t>
-  </si>
-  <si>
-    <t>A-one Industrial Sales</t>
-  </si>
-  <si>
-    <t>CENJO-EM007-100-CNPR</t>
-  </si>
-  <si>
-    <t>Retrofitting of UG40 Hydraulic</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>PCENJO-EM007-100-1005-CNPR</t>
-  </si>
-  <si>
-    <t>sdfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.13.2021 - Delivered DR# 1010-CNPR
-</t>
-  </si>
-  <si>
-    <t>PHP 324.00</t>
-  </si>
-  <si>
-    <t>PCENJO-EM007-100-1006-CNPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.13.2021 - Delivered DR# 1011-CNPR
-</t>
-  </si>
-  <si>
-    <t>PCENJO-EM007-100-1007-CNPR</t>
-  </si>
-  <si>
-    <t>Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum</t>
-  </si>
-  <si>
-    <t>A.C. Parts Merchandising</t>
-  </si>
-  <si>
-    <t>PHP 3453.00</t>
+    <t>AUD 20.0000</t>
+  </si>
+  <si>
+    <t>PHP 50.00</t>
   </si>
 </sst>
 </file>
@@ -194,7 +161,7 @@
       <name val="Arial Black"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,13 +173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffecd0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb9ffb9"/>
+        <fgColor rgb="FFbcffc7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -237,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -260,18 +221,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -573,32 +522,38 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="27.13623" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="36.419678" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="31.706543" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="31.706543" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="31.706543" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="129.682617" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="43.560791" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="34.134521" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="58.842773" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="34.134521" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="9.283447" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,12 +562,12 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -658,293 +613,85 @@
       <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="P4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:21">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="6">
-        <v>450</v>
-      </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="N5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
-        <v>7</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="6">
-        <v>10500</v>
-      </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="8" t="s">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="R5" s="6">
+        <v>40</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>5</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="10">
-        <v>1620</v>
-      </c>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10">
-        <v>5</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="10">
-        <v>1620</v>
-      </c>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="6">
-        <v>10359</v>
-      </c>
-      <c r="O11" s="5"/>
+      <c r="T5" s="6">
+        <v>50</v>
+      </c>
+      <c r="U5" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/JOI Summary.xlsx
+++ b/JOI Summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>JOI Summary 2021</t>
   </si>
@@ -89,42 +89,62 @@
     <t>JOR 2021-1-CNPR</t>
   </si>
   <si>
-    <t>SAMPLE PURPOSE BY HR ADMIN</t>
-  </si>
-  <si>
-    <t>2021-08-24</t>
+    <t>Repair of entrance front door glass.</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
   </si>
   <si>
     <t>PJOR 2021-1-1000-CNPR</t>
   </si>
   <si>
-    <t>SAMPLE REQUEST BY HR ADMIN</t>
-  </si>
-  <si>
-    <t>lot/s</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>trials</t>
-  </si>
-  <si>
-    <t>Fully Delivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.24.2021 - Delivered DR# 1000-CNPR (1.00 lot/s)
-08.24.2021 - Delivered DR# 1001-CNPR (0.00 lot/s)
-</t>
+    <t>Syndey Sinoro</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Aragay Nars</t>
+  </si>
+  <si>
+    <t>Testing Offer</t>
+  </si>
+  <si>
+    <t>Partially Delivered</t>
+  </si>
+  <si>
+    <t>Testing jashdk jka sdjk
+klsajdl k</t>
   </si>
   <si>
     <t xml:space="preserve"> Tough Performance AutoWorkz</t>
   </si>
   <si>
-    <t>AUD 20.0000</t>
-  </si>
-  <si>
-    <t>PHP 50.00</t>
+    <t>PHP 200.0000</t>
+  </si>
+  <si>
+    <t>PHP 100.00</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>PJOR 2021-1-1004-CNPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Item no. 4 sample</t>
+  </si>
+  <si>
+    <t>aragay nars</t>
+  </si>
+  <si>
+    <t>JO Issued</t>
+  </si>
+  <si>
+    <t>PHP 40.0000</t>
+  </si>
+  <si>
+    <t>PHP 20.00</t>
   </si>
 </sst>
 </file>
@@ -161,7 +181,7 @@
       <name val="Arial Black"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,7 +193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFbcffc7"/>
+        <fgColor rgb="FFf7ffb9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffecd0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -198,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -221,6 +247,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -522,28 +560,28 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="27.13623" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="31.706543" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="43.560791" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="31.706543" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="58.842773" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="24.708252" bestFit="true" customWidth="true" style="0"/>
@@ -649,10 +687,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>28</v>
@@ -664,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>28</v>
@@ -683,15 +721,74 @@
         <v>34</v>
       </c>
       <c r="R5" s="6">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="T5" s="6">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="10">
+        <v>40</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="10">
+        <v>20</v>
+      </c>
+      <c r="U6" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/JOI Summary.xlsx
+++ b/JOI Summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>JOI Summary 2021</t>
   </si>
@@ -92,59 +92,187 @@
     <t>Repair of entrance front door glass.</t>
   </si>
   <si>
-    <t>2021-09-03</t>
+    <t>2021-09-08</t>
   </si>
   <si>
     <t>PJOR 2021-1-1000-CNPR</t>
   </si>
   <si>
-    <t>Syndey Sinoro</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
-    <t>Aragay Nars</t>
-  </si>
-  <si>
-    <t>Testing Offer</t>
-  </si>
-  <si>
-    <t>Partially Delivered</t>
-  </si>
-  <si>
-    <t>Testing jashdk jka sdjk
-klsajdl k</t>
+    <t xml:space="preserve"> Item no. 1 sample</t>
+  </si>
+  <si>
+    <t>JO Issued</t>
+  </si>
+  <si>
+    <t>A &amp; M Medcare Products Distributors</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0000</t>
+  </si>
+  <si>
+    <t>PHP 1580.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Item no. 2 sample</t>
+  </si>
+  <si>
+    <t>PHP 0.0000</t>
+  </si>
+  <si>
+    <t>PHP 1080.00</t>
+  </si>
+  <si>
+    <t>PJOR 2021-1-1001-CNPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item no. 3 sample				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material no. 3 sample				    						</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For JO - AOQ Done (awarded) 
+</t>
+  </si>
+  <si>
+    <t>A-one Industrial Sales</t>
+  </si>
+  <si>
+    <t>PHP 1500.00</t>
+  </si>
+  <si>
+    <t>JOR 2021-3-CNPR</t>
+  </si>
+  <si>
+    <t>INSTALLATION OF ADDITIONAL CCTV CAMERA IN DRAIN CANALS AND LADIES DORM</t>
+  </si>
+  <si>
+    <t>PJOR 2021-3-1004-CNPR</t>
+  </si>
+  <si>
+    <t>lot/s</t>
+  </si>
+  <si>
+    <t>Materials &amp; Equipment preparations.</t>
+  </si>
+  <si>
+    <t>1. material no 1
+2. material no 2</t>
+  </si>
+  <si>
+    <t>PHP 1530.0000</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>Lay-out &amp; excavation of underground pathway</t>
+  </si>
+  <si>
+    <t>PHP 1850.00</t>
+  </si>
+  <si>
+    <t>Excavation of pole foundation</t>
+  </si>
+  <si>
+    <t>Fully Delivered</t>
+  </si>
+  <si>
+    <t>delivered 5 of 5</t>
+  </si>
+  <si>
+    <t>PHP 1570.00</t>
+  </si>
+  <si>
+    <t>PJOR 2021-3-1005-CNPR</t>
+  </si>
+  <si>
+    <t>Erection of steel pole</t>
+  </si>
+  <si>
+    <t>material no 1 AESC</t>
+  </si>
+  <si>
+    <t>Abomar Equipment Sales Corporation</t>
+  </si>
+  <si>
+    <t>PHP 1470.0000</t>
+  </si>
+  <si>
+    <t>JOR 2021-4-CNPR</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+  </si>
+  <si>
+    <t>PJOR 2021-4-1006-CNPR</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 1				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 11				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JO AOQ Done - For TE - 2021-09-09
+</t>
   </si>
   <si>
     <t xml:space="preserve"> Tough Performance AutoWorkz</t>
   </si>
   <si>
-    <t>PHP 200.0000</t>
-  </si>
-  <si>
-    <t>PHP 100.00</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>PJOR 2021-1-1004-CNPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Item no. 4 sample</t>
-  </si>
-  <si>
-    <t>aragay nars</t>
-  </si>
-  <si>
-    <t>JO Issued</t>
-  </si>
-  <si>
-    <t>PHP 40.0000</t>
-  </si>
-  <si>
-    <t>PHP 20.00</t>
+    <t>BDT 100.0000</t>
+  </si>
+  <si>
+    <t>BDT 200.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 10				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 1010				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 100				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 100100				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 2				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 22				    						</t>
+  </si>
+  <si>
+    <t>CAD 400.0000</t>
+  </si>
+  <si>
+    <t>CAD 300.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 20				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 2020				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 200				    						</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample 200200				    						</t>
   </si>
 </sst>
 </file>
@@ -193,13 +321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf7ffb9"/>
+        <fgColor rgb="FFffecd0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffecd0"/>
+        <fgColor rgb="FFbcffc7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -224,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -247,6 +375,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,33 +700,33 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="27.13623" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="83.693848" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="51.844482" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="42.418213" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="34.134521" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="42.418213" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="9.283447" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -683,112 +823,1415 @@
       <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="6">
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1580</v>
+      </c>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1080</v>
+      </c>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="10">
+        <v>1500</v>
+      </c>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1530</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="10">
+        <v>7900</v>
+      </c>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="10">
+        <v>18500</v>
+      </c>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="14">
+        <v>7850</v>
+      </c>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6">
+        <v>30</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="6">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="6">
+        <v>7350</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" s="6">
+        <v>47100</v>
+      </c>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="10">
+        <v>5</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="10">
+        <v>500</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="10">
+        <v>5</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="10">
+        <v>500</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="10">
+        <v>5</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="10">
+        <v>500</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10">
         <v>6</v>
       </c>
-      <c r="G5" s="6">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="6">
-        <v>200</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="6">
-        <v>600</v>
-      </c>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="9" t="s">
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="10">
+        <v>6</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="10">
+      <c r="N15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="10">
+        <v>2400</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="10">
+        <v>1800</v>
+      </c>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10">
+        <v>6</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="10">
+        <v>6</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="10">
-        <v>20</v>
-      </c>
-      <c r="U6" s="9"/>
+      <c r="N16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" s="10">
+        <v>2400</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" s="10">
+        <v>1800</v>
+      </c>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10">
+        <v>6</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="10">
+        <v>6</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="10">
+        <v>2400</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" s="10">
+        <v>1800</v>
+      </c>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10">
+        <v>5</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="10">
+        <v>5</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="10">
+        <v>500</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10">
+        <v>5</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="10">
+        <v>5</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" s="10">
+        <v>500</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10">
+        <v>5</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="10">
+        <v>5</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="10">
+        <v>500</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T20" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10">
+        <v>6</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="10">
+        <v>6</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="10">
+        <v>2400</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" s="10">
+        <v>1800</v>
+      </c>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10">
+        <v>6</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="10">
+        <v>6</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R22" s="10">
+        <v>2400</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T22" s="10">
+        <v>1800</v>
+      </c>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10">
+        <v>6</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="10">
+        <v>6</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="10">
+        <v>2400</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="10">
+        <v>1800</v>
+      </c>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10">
+        <v>5</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="10">
+        <v>5</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R24" s="10">
+        <v>500</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T24" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10">
+        <v>5</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="10">
+        <v>5</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" s="10">
+        <v>500</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T25" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10">
+        <v>5</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="10">
+        <v>5</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R26" s="10">
+        <v>500</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10">
+        <v>6</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="10">
+        <v>6</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R27" s="10">
+        <v>2400</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T27" s="10">
+        <v>1800</v>
+      </c>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10">
+        <v>6</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="10">
+        <v>6</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R28" s="10">
+        <v>2400</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" s="10">
+        <v>1800</v>
+      </c>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10">
+        <v>6</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="10">
+        <v>6</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R29" s="10">
+        <v>2400</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T29" s="10">
+        <v>1800</v>
+      </c>
+      <c r="U29" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/JOI Summary.xlsx
+++ b/JOI Summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>JOI Summary 2021</t>
   </si>
@@ -86,107 +86,364 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>JOR 2021-1-CNPR / CNPR-S-EMG-9821-1002</t>
-  </si>
-  <si>
-    <t>INSTALLATION OF ADDITIONAL CCTV CAMERA IN DRAIN CANALS AND LADIES DORM</t>
-  </si>
-  <si>
-    <t>2021-09-29</t>
+    <t>JOR 2021-1-CNPR / CENJO-EM127-21</t>
+  </si>
+  <si>
+    <t>Quarterly Water Analysis of Outfall/Effluent Water Discharge as per EMB-DENR Compliance (Fourth Quarter).</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
   </si>
   <si>
     <t>PJOR 2021-1-1000-CNPR</t>
   </si>
   <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Erection of steel pole</t>
-  </si>
-  <si>
-    <t>Testing lng danay ah</t>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>1. pH</t>
   </si>
   <si>
     <t>JO Issued</t>
   </si>
   <si>
-    <t>7RJ Brothers Sand &amp; Gravel &amp; Gen. Mdse.</t>
-  </si>
-  <si>
-    <t>COD-Actual Quantity (delivered to site)</t>
+    <t>Negros Prawn Producers Cooperative</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0000</t>
+  </si>
+  <si>
+    <t>PHP 200.00</t>
+  </si>
+  <si>
+    <t>2. Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>3. Biochemical Oxygen Demand (BOD)</t>
+  </si>
+  <si>
+    <t>PHP 1300.00</t>
+  </si>
+  <si>
+    <t>4. Total Suspended Solids (TSS)</t>
+  </si>
+  <si>
+    <t>PHP 750.00</t>
+  </si>
+  <si>
+    <t>5. Oil &amp; Grease</t>
+  </si>
+  <si>
+    <t>PHP 850.00</t>
+  </si>
+  <si>
+    <t>6. Chlorides</t>
+  </si>
+  <si>
+    <t>PHP 650.00</t>
+  </si>
+  <si>
+    <t>7. Phospate</t>
+  </si>
+  <si>
+    <t>8. Color</t>
+  </si>
+  <si>
+    <t>PHP 350.00</t>
+  </si>
+  <si>
+    <t>JOR 2021-2-CNPR / CENJO-EM124-21</t>
+  </si>
+  <si>
+    <t>Delivery of Water Treatment Chemical For Cooling Tower Basin 2.</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>PJOR 2021-2-1001-CNPR</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
+    <t>1. Delivery of chemical MB 215 for Microbio Control.
+2. Transport to site.
+3. Chemical handling on site.
+4. Other work activities necessary for request completion.</t>
+  </si>
+  <si>
+    <t>Fully Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.21.21 - Completed </t>
+  </si>
+  <si>
+    <t>NCH Philippines Inc.</t>
+  </si>
+  <si>
+    <t>30 days upon Delivery of Chemicals</t>
   </si>
   <si>
     <t>PHP 0.0000</t>
   </si>
   <si>
-    <t>PHP 400.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Assistance in cable pulling &amp; laying of conduit pipe</t>
-  </si>
-  <si>
-    <t>PHP 300.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Backfilling &amp; compaction</t>
-  </si>
-  <si>
-    <t>PHP 200.00</t>
-  </si>
-  <si>
-    <t>PJOR 2021-1-1002-CNPR</t>
-  </si>
-  <si>
-    <t>Offer 1</t>
+    <t>PHP 66500.00</t>
+  </si>
+  <si>
+    <t>JOR 2021-3-CNPR / CENJO-EM110-21</t>
+  </si>
+  <si>
+    <t>Fabrication of Cistern for Rain Water Collection System.</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>PJOR 2021-3-1005-CNPR</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>1. Retrieval and hauling of scrap materials
+2. Lay-out,cutting and fabrication of steel plattform.
+3. Erection of plattform and installation of empty drums water tank.
+4. Plumbing works.
+5. Surface preparation and painting of primer paints.
+6. Hauling of materials and housekeeping.</t>
+  </si>
+  <si>
+    <t>Chester Lobrido</t>
+  </si>
+  <si>
+    <t>Progress Billing</t>
+  </si>
+  <si>
+    <t>PHP 5000.00</t>
+  </si>
+  <si>
+    <t>JOR 2021-4-CNPR / CENJO-EM099-21</t>
+  </si>
+  <si>
+    <t>Cutting and Flattening of Empty Drums (200 pcs) for Perimeter Fencing.</t>
+  </si>
+  <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
+    <t>PJOR 2021-4-1007-CNPR</t>
+  </si>
+  <si>
+    <t>1. Materials and equipment preparation.
+2. Lay-out ,cutting and flattening of steel drums.
+3. Stock filling for safekeeping of flattened steel drums.
+4. Hauling of materials and housekeeping.</t>
+  </si>
+  <si>
+    <t>Edmundo Sixto</t>
+  </si>
+  <si>
+    <t>PHP 12000.00</t>
+  </si>
+  <si>
+    <t>JOR 2021-5-CNPR / CENJO-EM128-21</t>
+  </si>
+  <si>
+    <t>Leak Testing of the Air Conditioning Unit  in Power Plant Site Admin Office.</t>
+  </si>
+  <si>
+    <t>PJOR 2021-5-1008-CNPR</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>1. Leak Testing of Power Plant Site Admin Area
+&gt;Kolin Floor Mounted Type Aircon, 5 Tons (Indoor Unit) - Admin Office
+&gt; Kolin Floor Mounted Type Aircon, 5 Tons (Outdoor Unit) - Outside Admin Office</t>
+  </si>
+  <si>
+    <t>12.07.21 - Completed</t>
+  </si>
+  <si>
+    <t>ANE Electronic &amp; Airconditioning Technology</t>
+  </si>
+  <si>
+    <t>PHP 3500.00</t>
+  </si>
+  <si>
+    <t>JOR 2021-6-CNPR / CENJO-EM133-21</t>
+  </si>
+  <si>
+    <t>Cleaning of Air Conditioning Unit in Power Plant Site, Warehouse.</t>
+  </si>
+  <si>
+    <t>PJOR 2021-6-1009-CNPR</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Cleaning of Aircon in Power Plant Site, Warehouse
+    &gt; 1.5 HP Wall Mounted, Split Type, Inverter, Kolin (Indoor Unit) - Warehouse Office
+    &gt; 1.5 HP Wall Mounted, Split Type, Inverter, Kolin (Outdoor Unit) - Outside Warehouse Building</t>
+  </si>
+  <si>
+    <t>JOR 2021-8-CNPR / CENJO-EM139-21</t>
+  </si>
+  <si>
+    <t>Cleaning of Raw Water Tank and Cooling Tower Basin 1 and 2</t>
+  </si>
+  <si>
+    <t>PJOR 2021-8-1012-CNPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. Cleaning of Raw Water Tank and Cooling Tower Basin
+1. Manpower / Labor
+2. Technical Expertise (If Applicable)
+3. Pouring of concrete top cover.
+4. Hauling of materials and housekeeping.
+</t>
+  </si>
+  <si>
+    <t>2.1 Raw Water Tank, vertical steel tank, approx. 100 cu. M volume cap.</t>
   </si>
   <si>
     <t>Pending</t>
   </si>
   <si>
-    <t xml:space="preserve">JO AOQ Done - For TE - 2021-09-29
+    <t xml:space="preserve">JO AOQ Done - For TE - 2021-12-01
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Tough Performance AutoWorkz</t>
-  </si>
-  <si>
-    <t>PHP 20.00</t>
-  </si>
-  <si>
-    <t>Offer 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0000</t>
-  </si>
-  <si>
-    <t>PHP 60.00</t>
-  </si>
-  <si>
-    <t>Offer 3</t>
-  </si>
-  <si>
-    <t>PHP 80.00</t>
-  </si>
-  <si>
-    <t>Material 1</t>
-  </si>
-  <si>
-    <t>PHP 40.0000</t>
-  </si>
-  <si>
-    <t>PJOR 2021-1-1004-CNPR</t>
-  </si>
-  <si>
-    <t>PJOR 2021-1-1007-CNPR</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>PHP 70.00</t>
-  </si>
-  <si>
-    <t>PHP 50.00</t>
+    <t>PHP 8000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. Cleaning of Raw Water Tank and Cooling Tower Basin
+1. Manpower / Labor
+2. Technical Expertise (If Applicable)
+2.1 Raw Water Tank, vertical steel tank, approx. 100 cu. M volume cap. - 1 unit
+2.2 Cooling Tower Basin 1, rectangular concrete basin, approx. 300 cu. M volume capacity. - 1 unit
+2.3 Cooling Tower Basin 1, rectangular concrete basin, approx. 200 cu. M volume capacity. -  1 unit
+3. Housekeeping and demobilization.
+4. Hauling of materials and housekeeping.
+</t>
+  </si>
+  <si>
+    <t>PJOR 2021-8-1013-CNPR</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>PJOR 2021-8-1015-CNPR</t>
+  </si>
+  <si>
+    <t>JOR 2021-11-CNPR / CENJO-EM145-21</t>
+  </si>
+  <si>
+    <t>Delivery of Water Treatment Chemical Cooling Tower Basin 2.</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>PJOR 2021-11-1022-CNPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Delivery of chemical CA 31155 for Scale and Corrosion Inhibitor.
+2. Transport to site.
+3. Chemical handling on site.
+4. Other work activities necessary for request completion.</t>
+  </si>
+  <si>
+    <t>PHP 77616.00</t>
+  </si>
+  <si>
+    <t>JOR 2021-12-CNPR / CENJO-EM148-21</t>
+  </si>
+  <si>
+    <t>Reprocess and Charging of Freon on Air Conditioning Unit  in Power Plant Site Admin Office.</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>PJOR 2021-12-1027-CNPR</t>
+  </si>
+  <si>
+    <t>1. Reprocess and Charging of Freon on Air Conditioning Unit in Power Plant Site Admin Area:
+&gt; Kolin Floor Mounted Type Aircon, 5 Tons (Indoor Unit) - Admin Office
+&gt; Kolin Floor Mounted Type Aircon, 5 Tons (Outdoor Unit) - Outside Admin Office
+2. Repair of leak found during leak testing under CENJO-EM128-21.</t>
+  </si>
+  <si>
+    <t>01.04.22 - Completed</t>
+  </si>
+  <si>
+    <t>PHP 4800.00</t>
+  </si>
+  <si>
+    <t>JOR 2021-14-CNPR / CENJO-EM138-21</t>
+  </si>
+  <si>
+    <t>Fabrication of Raw Water Pump Shaft (Spare Raw Water Pump for Cooling Tower Basin 1) Supersedes CENJO-EM053-21.</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
+    <t>PJOR 2021-14-1029-CNPR</t>
+  </si>
+  <si>
+    <t>1. Dismantling of impeller from the raw water pump shaft.
+2. Fabrication of pump shaft per attached working drawing.
+Specifications: As per attached drawing
+Material: 4140
+3. Balancing of impeller with new shafting
+4. Other work activities seen necessary for the job completion.</t>
+  </si>
+  <si>
+    <t>Eduard Metal Industries</t>
+  </si>
+  <si>
+    <t>15 days PDC</t>
+  </si>
+  <si>
+    <t>PHP 22800.00</t>
+  </si>
+  <si>
+    <t>JOR 2021-15-CNPR / CENJO-EM134-21</t>
+  </si>
+  <si>
+    <t>Modification of Staff House for COMECQ.</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
+    <t>PJOR 2021-15-1033-CNPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.  Lay-out and CHB laying.
+2. Installation of wall studs and door jambs.
+3. Installation of walls.
+4. Installation of doors and windows.
+5. Installation of ceiling joist.
+6. Installation of ceiling panels.
+7. Excavation and installation of sewage and drain pipeline.
+8. Pouring of flooring.
+9. Installation of toilet bowl and floor drain strainer.
+10. Installation of water supply and fittings.
+11. Electrical works
+12. Hauling of materials and housekeeping.</t>
+  </si>
+  <si>
+    <t>PHP 13000.00</t>
   </si>
 </sst>
 </file>
@@ -223,7 +480,7 @@
       <name val="Arial Black"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFffecd0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbcffc7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -260,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -283,6 +546,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -596,33 +871,33 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.845947" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="83.693848" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="131.967773" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="63.555908" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="117.828369" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="83.693848" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="39.990234" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="47.131348" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="47.131348" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="51.844482" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="41.132813" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="9.283447" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -721,7 +996,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -732,34 +1007,30 @@
       <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="T5" s="6">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="U5" s="5"/>
     </row>
@@ -778,7 +1049,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -787,36 +1058,32 @@
         <v>27</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="4"/>
       <c r="M6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="T6" s="6">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="U6" s="5"/>
     </row>
@@ -835,7 +1102,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -844,408 +1111,384 @@
         <v>27</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="4"/>
       <c r="M7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="R7" s="6">
         <v>0</v>
       </c>
       <c r="S7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1300</v>
+      </c>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="6">
-        <v>600</v>
-      </c>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="8" t="s">
+      <c r="T8" s="6">
+        <v>750</v>
+      </c>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="6">
+        <v>850</v>
+      </c>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="I10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="6">
+        <v>650</v>
+      </c>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="I11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10" t="s">
+      <c r="T11" s="6">
+        <v>650</v>
+      </c>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="10">
-        <v>200</v>
-      </c>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>50</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="10">
-        <v>3000</v>
-      </c>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>70</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="T10" s="10">
-        <v>5600</v>
-      </c>
-      <c r="U10" s="9"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>10</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="10">
-        <v>30</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" s="10">
-        <v>1200</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" s="10">
-        <v>200</v>
-      </c>
-      <c r="U11" s="9"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>50</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R12" s="10">
-        <v>0</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T12" s="10">
-        <v>3000</v>
-      </c>
-      <c r="U12" s="9"/>
+      <c r="T12" s="6">
+        <v>350</v>
+      </c>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="8" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="10">
         <v>0</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>27</v>
+      <c r="L13" s="8">
+        <v>0</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="Q13" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R13" s="10">
         <v>0</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="T13" s="10">
-        <v>5600</v>
+        <v>66500</v>
       </c>
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="6">
@@ -1253,303 +1496,651 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="Q14" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="R14" s="6">
         <v>0</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="T14" s="6">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="6">
         <v>0</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="M15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="5" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="R15" s="6">
         <v>0</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="T15" s="6">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="A16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6">
-        <v>70</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T16" s="6">
-        <v>5600</v>
-      </c>
-      <c r="U16" s="5"/>
+      <c r="N16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" s="10">
+        <v>3500</v>
+      </c>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6">
-        <v>20</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="10">
+        <v>750</v>
+      </c>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="T18" s="14">
+        <v>8000</v>
+      </c>
+      <c r="U18" s="13"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="T19" s="14">
+        <v>8000</v>
+      </c>
+      <c r="U19" s="13"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T20" s="6">
+        <v>8000</v>
+      </c>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T21" s="6">
+        <v>8000</v>
+      </c>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="6">
-        <v>3</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R17" s="6">
+      <c r="P22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" s="6">
+        <v>77616</v>
+      </c>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="T23" s="10">
+        <v>4800</v>
+      </c>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T24" s="6">
+        <v>22800</v>
+      </c>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T17" s="6">
-        <v>1400</v>
-      </c>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6">
-        <v>5</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="6">
-        <v>3</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R18" s="6">
-        <v>120</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T18" s="6">
-        <v>300</v>
-      </c>
-      <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6">
-        <v>3</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="6">
-        <v>3</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="6">
-        <v>120</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="T19" s="6">
-        <v>150</v>
-      </c>
-      <c r="U19" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="T25" s="6">
+        <v>13000</v>
+      </c>
+      <c r="U25" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
